--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R927c78c0c8a344f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R42e2f1ada29647dc"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -478,7 +478,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rce35da50a68348ab"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43e417c0ba19491a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -508,7 +508,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R19cf625504624f04"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3dee6377b3f84591"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -538,7 +538,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R56715c541ef54862"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b21cc2c4680479b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -568,7 +568,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7beca37464b0488d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd7aa29a1e4840bd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -658,6 +658,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7fa59d036c24447a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d698bcd04b64616"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R42e2f1ada29647dc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6f416094e615469a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -306,6 +306,10 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Sales Data'!$A$2:$A$7</c:f>
@@ -478,7 +482,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R43e417c0ba19491a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6458757713f04980"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -508,7 +512,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3dee6377b3f84591"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6f9bed5e4ed48ff"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -538,7 +542,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1b21cc2c4680479b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0151da5151f7435a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -568,7 +572,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdd7aa29a1e4840bd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad10d7c5bdc34f3f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -658,6 +662,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8d698bcd04b64616"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcf7ad0310b0e498d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R6f416094e615469a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R83a6c8276f1a44b9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -482,7 +482,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6458757713f04980"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f29c00e2c634613"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -512,7 +512,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re6f9bed5e4ed48ff"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re860022b2b644e69"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -542,7 +542,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0151da5151f7435a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b24b7d335dd4c60"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -572,7 +572,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad10d7c5bdc34f3f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd80fca28f1b8403d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -662,6 +662,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcf7ad0310b0e498d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reb61d1bd33fe4e9a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R83a6c8276f1a44b9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfac59543f27a43e5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -482,7 +482,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6f29c00e2c634613"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad054dd93b0c4716"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -512,7 +512,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re860022b2b644e69"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R56a4c0f41ad341f2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -542,7 +542,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8b24b7d335dd4c60"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67197c62eab64829"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -572,7 +572,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd80fca28f1b8403d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5afb71e83d514ad4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -662,6 +662,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Reb61d1bd33fe4e9a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfcd4f9113e7b461e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfac59543f27a43e5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rf86b195eef16418e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -482,7 +482,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rad054dd93b0c4716"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R224a49879e004510"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -512,7 +512,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R56a4c0f41ad341f2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R362aba32464447a2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -542,7 +542,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67197c62eab64829"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6b410cf4bda4145"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -572,7 +572,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5afb71e83d514ad4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25e95af397e843bd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -662,6 +662,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfcd4f9113e7b461e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R002a5e7c044348e9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/84_ChartSeriesNames.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rf86b195eef16418e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rfa5fb64c1ce24f72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -321,6 +321,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -482,7 +490,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R224a49879e004510"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rdeb60707519c4f63"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -512,7 +520,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R362aba32464447a2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R00018cd82d654bdd"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -542,7 +550,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb6b410cf4bda4145"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0833bc2250db4c44"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -572,7 +580,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25e95af397e843bd"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc3859625b5174f61"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -662,6 +670,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R002a5e7c044348e9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R38f5c1b9e62849c4"/>
 </x:worksheet>
 </file>